--- a/data/trans_dic/P5_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de patio en su vivienda</t>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>33,2%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,04; 40,84</t>
+          <t>28,9; 44,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,33; 44,29</t>
+          <t>29,12; 45,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,28; 36,05</t>
+          <t>23,39; 36,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 36,12</t>
+          <t>22,76; 35,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,84</t>
+          <t>27,97; 38,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,14; 38,07</t>
+          <t>28,07; 38,55</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>57,78%</t>
+          <t>61,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60,48%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>60,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,02%</t>
+          <t>59,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,33%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>60,8%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,88; 64,35</t>
+          <t>52,72; 69,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,98; 68,2</t>
+          <t>53,47; 70,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,69; 61,69</t>
+          <t>52,71; 68,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,16; 62,74</t>
+          <t>52,11; 67,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,75; 60,83</t>
+          <t>54,93; 66,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,28; 62,98</t>
+          <t>54,39; 66,2</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>67,07%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,99%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69,25%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>67,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>68,49%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,49; 80,02</t>
+          <t>31,29; 95,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,89; 83,11</t>
+          <t>29,49; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,99; 79,49</t>
+          <t>48,45; 80,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,15; 78,97</t>
+          <t>47,62; 79,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,31; 77,63</t>
+          <t>45,08; 81,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,69; 78,04</t>
+          <t>44,92; 82,32</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>48,16%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,36; 52,96</t>
+          <t>44,15; 57,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,56; 56,13</t>
+          <t>44,59; 58,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,07; 47,92</t>
+          <t>40,11; 50,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,21; 48,19</t>
+          <t>39,84; 50,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,13; 48,93</t>
+          <t>43,76; 51,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,53; 50,61</t>
+          <t>43,88; 51,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>134410</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>163751</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>130176</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>147972</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>264587</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>311724</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>105692; 162957</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>125261; 197685</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>101829; 158849</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>115786; 181171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>224078; 307382</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>263550; 361941</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>186127</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>222515</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>211009</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>254611</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>397136</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>477125</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>160653; 211367</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>192157; 254341</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>184523; 238434</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>221650; 287608</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>359685; 433182</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>426857; 519520</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60530</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74041</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53296</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64958</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>113826</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>138999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26545; 81271</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30013; 101768</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40024; 66462</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48171; 80687</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>75475; 136402</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>91161; 167062</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>381067</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>460307</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>394482</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>467540</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>775549</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>927848</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>333477; 430491</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>397438; 521149</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>348172; 436045</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>412440; 518022</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>710416; 833145</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>845479; 998902</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>